--- a/data/trans_orig/Q5403-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5403-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F6FDDDE-7029-4C40-88D2-D641F41F1F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F83B069E-B8C7-47E7-A6D5-94BC042A7272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EA0CFEA6-4D81-42FC-8349-79987D061B58}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7849703E-7A29-4387-AB05-482C7388629B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="908">
   <si>
     <t>Población según si es capaz de ir de compras en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -812,7 +812,85 @@
     <t>Población según si es capaz de ir de compras en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
   </si>
   <si>
     <t>10,77%</t>
@@ -911,9 +989,6 @@
     <t>14,03%</t>
   </si>
   <si>
-    <t>8,81%</t>
-  </si>
-  <si>
     <t>21,19%</t>
   </si>
   <si>
@@ -971,1738 +1046,1723 @@
     <t>82,54%</t>
   </si>
   <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de ir de compras en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de ir de compras en 2023 (Tasa respuesta: 31,22%)</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
   </si>
   <si>
     <t>17,07%</t>
   </si>
   <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
   </si>
   <si>
     <t>70,38%</t>
   </si>
   <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de ir de compras en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de ir de compras en 2023 (Tasa respuesta: 31,22%)</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
   </si>
   <si>
     <t>12,09%</t>
   </si>
   <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
   </si>
 </sst>
 </file>
@@ -3114,7 +3174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E3E27A-BA84-4408-87CB-6FC493E1E6FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621B8854-58DC-4D24-AFB2-03F391279363}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5104,7 +5164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F64E942-4391-4A06-BA61-12A1F0FC7333}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F91A99-0753-4107-A022-3FF2EC1011A6}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5222,43 +5282,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2951</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>257</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="7">
+        <v>9434</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="N4" s="7">
+        <v>12386</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5267,43 +5333,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5983</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="I5" s="7">
+        <v>13690</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="N5" s="7">
+        <v>19673</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5312,43 +5384,49 @@
         <v>28</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D6" s="7">
+        <v>35347</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="I6" s="7">
+        <v>25769</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="N6" s="7">
+        <v>61116</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,43 +5435,49 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="D7" s="7">
+        <v>44281</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>257</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>257</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>257</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="I7" s="7">
+        <v>48894</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>257</v>
+        <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>257</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="N7" s="7">
+        <v>93175</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>257</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5410,13 +5494,13 @@
         <v>8527</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="H8" s="7">
         <v>18</v>
@@ -5425,13 +5509,13 @@
         <v>20848</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="M8" s="7">
         <v>25</v>
@@ -5440,13 +5524,13 @@
         <v>29375</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5464,10 +5548,10 @@
         <v>128</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -5476,13 +5560,13 @@
         <v>12019</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="M9" s="7">
         <v>16</v>
@@ -5491,10 +5575,10 @@
         <v>19625</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>154</v>
@@ -5512,13 +5596,13 @@
         <v>63070</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="H10" s="7">
         <v>64</v>
@@ -5527,13 +5611,13 @@
         <v>69226</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="M10" s="7">
         <v>121</v>
@@ -5542,13 +5626,13 @@
         <v>132296</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5616,13 +5700,13 @@
         <v>7083</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="H12" s="7">
         <v>11</v>
@@ -5631,13 +5715,13 @@
         <v>11954</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="M12" s="7">
         <v>18</v>
@@ -5646,13 +5730,13 @@
         <v>19038</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5667,13 +5751,13 @@
         <v>6273</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -5682,13 +5766,13 @@
         <v>7380</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -5697,13 +5781,13 @@
         <v>13653</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5718,13 +5802,13 @@
         <v>42386</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="H14" s="7">
         <v>57</v>
@@ -5733,13 +5817,13 @@
         <v>60634</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="M14" s="7">
         <v>98</v>
@@ -5748,13 +5832,13 @@
         <v>103019</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,49 +5900,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>6</v>
+      </c>
+      <c r="D16" s="7">
+        <v>6413</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H16" s="7">
         <v>9</v>
       </c>
-      <c r="D16" s="7">
-        <v>9364</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="H16" s="7">
-        <v>18</v>
-      </c>
       <c r="I16" s="7">
-        <v>19299</v>
+        <v>9865</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>313</v>
+        <v>242</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="M16" s="7">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N16" s="7">
-        <v>28664</v>
+        <v>16278</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>318</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,49 +5951,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D17" s="7">
-        <v>15742</v>
+        <v>9760</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>319</v>
+        <v>342</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>320</v>
+        <v>137</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="H17" s="7">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I17" s="7">
-        <v>31088</v>
+        <v>17398</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="M17" s="7">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="N17" s="7">
-        <v>46831</v>
+        <v>27158</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>347</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,49 +6002,49 @@
         <v>28</v>
       </c>
       <c r="C18" s="7">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="D18" s="7">
-        <v>83201</v>
+        <v>47855</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="H18" s="7">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="I18" s="7">
-        <v>84080</v>
+        <v>58311</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="M18" s="7">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="N18" s="7">
-        <v>167282</v>
+        <v>106166</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,10 +6053,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D19" s="7">
-        <v>108308</v>
+        <v>64028</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>38</v>
@@ -5984,10 +6068,10 @@
         <v>38</v>
       </c>
       <c r="H19" s="7">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="I19" s="7">
-        <v>134468</v>
+        <v>85574</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>38</v>
@@ -5999,10 +6083,10 @@
         <v>38</v>
       </c>
       <c r="M19" s="7">
-        <v>227</v>
+        <v>140</v>
       </c>
       <c r="N19" s="7">
-        <v>242777</v>
+        <v>149602</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>38</v>
@@ -6028,13 +6112,13 @@
         <v>4448</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -6043,13 +6127,13 @@
         <v>11270</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -6058,13 +6142,13 @@
         <v>15718</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6079,13 +6163,13 @@
         <v>2257</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -6094,13 +6178,13 @@
         <v>6401</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="M21" s="7">
         <v>8</v>
@@ -6109,13 +6193,13 @@
         <v>8658</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6130,13 +6214,13 @@
         <v>24907</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -6145,13 +6229,13 @@
         <v>32184</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>356</v>
+        <v>379</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="M22" s="7">
         <v>53</v>
@@ -6160,13 +6244,13 @@
         <v>57091</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6237,10 +6321,10 @@
         <v>207</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="H24" s="7">
         <v>15</v>
@@ -6249,13 +6333,13 @@
         <v>16007</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>53</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -6264,13 +6348,13 @@
         <v>22433</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6285,13 +6369,13 @@
         <v>8530</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -6300,13 +6384,13 @@
         <v>5276</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>40</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -6315,13 +6399,13 @@
         <v>13806</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6336,13 +6420,13 @@
         <v>36800</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="H26" s="7">
         <v>49</v>
@@ -6351,13 +6435,13 @@
         <v>48929</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="M26" s="7">
         <v>85</v>
@@ -6366,13 +6450,13 @@
         <v>85729</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6440,13 +6524,13 @@
         <v>10449</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -6458,10 +6542,10 @@
         <v>128</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="M28" s="7">
         <v>20</v>
@@ -6470,13 +6554,13 @@
         <v>24075</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6491,13 +6575,13 @@
         <v>13367</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="H29" s="7">
         <v>21</v>
@@ -6506,13 +6590,13 @@
         <v>23953</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="M29" s="7">
         <v>34</v>
@@ -6521,13 +6605,13 @@
         <v>37320</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6542,13 +6626,13 @@
         <v>88447</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>402</v>
+        <v>425</v>
       </c>
       <c r="H30" s="7">
         <v>96</v>
@@ -6557,13 +6641,13 @@
         <v>104383</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>404</v>
+        <v>427</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="M30" s="7">
         <v>175</v>
@@ -6572,13 +6656,13 @@
         <v>192831</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>406</v>
+        <v>429</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>407</v>
+        <v>430</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,10 +6733,10 @@
         <v>55</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>409</v>
+        <v>432</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="H32" s="7">
         <v>17</v>
@@ -6661,13 +6745,13 @@
         <v>19000</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>411</v>
+        <v>434</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="M32" s="7">
         <v>21</v>
@@ -6676,13 +6760,13 @@
         <v>23354</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>414</v>
+        <v>437</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6697,13 +6781,13 @@
         <v>6717</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="H33" s="7">
         <v>15</v>
@@ -6712,13 +6796,13 @@
         <v>16789</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>419</v>
+        <v>442</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="M33" s="7">
         <v>20</v>
@@ -6727,13 +6811,13 @@
         <v>23506</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>423</v>
+        <v>446</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6748,13 +6832,13 @@
         <v>109681</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>424</v>
+        <v>447</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="H34" s="7">
         <v>119</v>
@@ -6763,13 +6847,13 @@
         <v>128628</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>115</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="M34" s="7">
         <v>216</v>
@@ -6781,10 +6865,10 @@
         <v>92</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6852,13 +6936,13 @@
         <v>50652</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="H36" s="7">
         <v>102</v>
@@ -6867,13 +6951,13 @@
         <v>112004</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>434</v>
+        <v>457</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>435</v>
+        <v>458</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
       <c r="M36" s="7">
         <v>147</v>
@@ -6882,13 +6966,13 @@
         <v>162656</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>438</v>
+        <v>461</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6903,13 +6987,13 @@
         <v>60493</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="H37" s="7">
         <v>94</v>
@@ -6918,13 +7002,13 @@
         <v>102906</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="M37" s="7">
         <v>147</v>
@@ -6933,13 +7017,13 @@
         <v>163399</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>445</v>
+        <v>468</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>446</v>
+        <v>469</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>447</v>
+        <v>470</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6954,13 +7038,13 @@
         <v>448492</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>449</v>
+        <v>472</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="H38" s="7">
         <v>498</v>
@@ -6969,13 +7053,13 @@
         <v>528065</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
       <c r="M38" s="7">
         <v>904</v>
@@ -6984,13 +7068,13 @@
         <v>976557</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>454</v>
+        <v>477</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>455</v>
+        <v>478</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7070,7 +7154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91C2132-3482-4E40-8D97-30A1EF0E8373}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B1DD0C6-E9CA-4DE3-8031-8CE5CFB13A8F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7087,7 +7171,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>457</v>
+        <v>480</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7194,13 +7278,13 @@
         <v>4035</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -7209,13 +7293,13 @@
         <v>5838</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>460</v>
+        <v>347</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>462</v>
+        <v>484</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -7224,13 +7308,13 @@
         <v>9873</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>463</v>
+        <v>485</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>465</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7245,13 +7329,13 @@
         <v>2464</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>466</v>
+        <v>488</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>467</v>
+        <v>489</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>468</v>
+        <v>490</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -7260,13 +7344,13 @@
         <v>16637</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>469</v>
+        <v>491</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>470</v>
+        <v>492</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>471</v>
+        <v>493</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -7275,13 +7359,13 @@
         <v>19101</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>472</v>
+        <v>494</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>473</v>
+        <v>495</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>474</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7296,13 +7380,13 @@
         <v>32397</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>475</v>
+        <v>497</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>476</v>
+        <v>498</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>477</v>
+        <v>499</v>
       </c>
       <c r="H6" s="7">
         <v>25</v>
@@ -7311,13 +7395,13 @@
         <v>26916</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>478</v>
+        <v>500</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>480</v>
+        <v>502</v>
       </c>
       <c r="M6" s="7">
         <v>59</v>
@@ -7326,13 +7410,13 @@
         <v>59313</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>481</v>
+        <v>503</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>482</v>
+        <v>504</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7400,13 +7484,13 @@
         <v>2503</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>484</v>
+        <v>506</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>485</v>
+        <v>507</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>486</v>
+        <v>508</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -7418,10 +7502,10 @@
         <v>220</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>487</v>
+        <v>509</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -7430,13 +7514,13 @@
         <v>18036</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>488</v>
+        <v>510</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7451,13 +7535,13 @@
         <v>7637</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>491</v>
+        <v>513</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>73</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>492</v>
+        <v>514</v>
       </c>
       <c r="H9" s="7">
         <v>14</v>
@@ -7466,13 +7550,13 @@
         <v>18936</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>493</v>
+        <v>515</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>494</v>
+        <v>516</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>495</v>
+        <v>517</v>
       </c>
       <c r="M9" s="7">
         <v>22</v>
@@ -7481,13 +7565,13 @@
         <v>26573</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>496</v>
+        <v>518</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>497</v>
+        <v>519</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>498</v>
+        <v>520</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7502,13 +7586,13 @@
         <v>77155</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>499</v>
+        <v>521</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>501</v>
+        <v>523</v>
       </c>
       <c r="H10" s="7">
         <v>69</v>
@@ -7517,13 +7601,13 @@
         <v>80758</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>503</v>
+        <v>525</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>504</v>
+        <v>526</v>
       </c>
       <c r="M10" s="7">
         <v>148</v>
@@ -7532,13 +7616,13 @@
         <v>157914</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>505</v>
+        <v>527</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7606,13 +7690,13 @@
         <v>4289</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>508</v>
+        <v>530</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>509</v>
+        <v>531</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7621,13 +7705,13 @@
         <v>4477</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>511</v>
+        <v>533</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>513</v>
+        <v>535</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -7636,13 +7720,13 @@
         <v>8766</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>514</v>
+        <v>536</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>515</v>
+        <v>537</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>516</v>
+        <v>538</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7657,13 +7741,13 @@
         <v>2458</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>517</v>
+        <v>539</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>518</v>
+        <v>540</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>519</v>
+        <v>541</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -7672,13 +7756,13 @@
         <v>7841</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>520</v>
+        <v>542</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>521</v>
+        <v>543</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>522</v>
+        <v>544</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -7687,13 +7771,13 @@
         <v>10300</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>523</v>
+        <v>545</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>524</v>
+        <v>546</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>525</v>
+        <v>547</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7708,13 +7792,13 @@
         <v>56799</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>526</v>
+        <v>548</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>527</v>
+        <v>549</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>528</v>
+        <v>550</v>
       </c>
       <c r="H14" s="7">
         <v>59</v>
@@ -7723,13 +7807,13 @@
         <v>67578</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>529</v>
+        <v>551</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>530</v>
+        <v>552</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>531</v>
+        <v>553</v>
       </c>
       <c r="M14" s="7">
         <v>123</v>
@@ -7738,13 +7822,13 @@
         <v>124377</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>532</v>
+        <v>554</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>533</v>
+        <v>555</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>534</v>
+        <v>556</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7812,13 +7896,13 @@
         <v>3455</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>535</v>
+        <v>557</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>536</v>
+        <v>558</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>537</v>
+        <v>559</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -7827,13 +7911,13 @@
         <v>5850</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>538</v>
+        <v>560</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>539</v>
+        <v>561</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>540</v>
+        <v>562</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -7842,13 +7926,13 @@
         <v>9305</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>541</v>
+        <v>563</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>542</v>
+        <v>564</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7866,10 +7950,10 @@
         <v>239</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>544</v>
+        <v>566</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -7878,13 +7962,13 @@
         <v>14731</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>545</v>
+        <v>567</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>546</v>
+        <v>568</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>547</v>
+        <v>569</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -7893,13 +7977,13 @@
         <v>19901</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>548</v>
+        <v>570</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>549</v>
+        <v>571</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>550</v>
+        <v>572</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7914,13 +7998,13 @@
         <v>56088</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>551</v>
+        <v>573</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>552</v>
+        <v>574</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>553</v>
+        <v>575</v>
       </c>
       <c r="H18" s="7">
         <v>60</v>
@@ -7929,13 +8013,13 @@
         <v>70992</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>554</v>
+        <v>576</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>555</v>
+        <v>577</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>556</v>
+        <v>578</v>
       </c>
       <c r="M18" s="7">
         <v>121</v>
@@ -7944,13 +8028,13 @@
         <v>127080</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>557</v>
+        <v>579</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>558</v>
+        <v>580</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8018,13 +8102,13 @@
         <v>799</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>560</v>
+        <v>582</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>561</v>
+        <v>583</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -8036,10 +8120,10 @@
         <v>47</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>562</v>
+        <v>584</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>563</v>
+        <v>585</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -8048,13 +8132,13 @@
         <v>6566</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>564</v>
+        <v>586</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>565</v>
+        <v>587</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>566</v>
+        <v>588</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8075,7 +8159,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>567</v>
+        <v>589</v>
       </c>
       <c r="H21" s="7">
         <v>9</v>
@@ -8084,13 +8168,13 @@
         <v>10518</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>568</v>
+        <v>590</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>569</v>
+        <v>591</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -8099,13 +8183,13 @@
         <v>12209</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>571</v>
+        <v>593</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8120,13 +8204,13 @@
         <v>39591</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>572</v>
+        <v>594</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>573</v>
+        <v>595</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>574</v>
+        <v>596</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
@@ -8135,13 +8219,13 @@
         <v>34247</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>575</v>
+        <v>597</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>576</v>
+        <v>598</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>577</v>
+        <v>599</v>
       </c>
       <c r="M22" s="7">
         <v>76</v>
@@ -8150,13 +8234,13 @@
         <v>73837</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>579</v>
+        <v>601</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>580</v>
+        <v>602</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8224,13 +8308,13 @@
         <v>8427</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>581</v>
+        <v>603</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>582</v>
+        <v>604</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>583</v>
+        <v>605</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -8239,13 +8323,13 @@
         <v>9509</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>584</v>
+        <v>606</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>585</v>
+        <v>607</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>586</v>
+        <v>608</v>
       </c>
       <c r="M24" s="7">
         <v>17</v>
@@ -8254,13 +8338,13 @@
         <v>17936</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>587</v>
+        <v>609</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>588</v>
+        <v>610</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>589</v>
+        <v>611</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8275,13 +8359,13 @@
         <v>1644</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>590</v>
+        <v>612</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>591</v>
+        <v>613</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -8290,13 +8374,13 @@
         <v>7047</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>592</v>
+        <v>614</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>593</v>
+        <v>615</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>594</v>
+        <v>616</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -8305,13 +8389,13 @@
         <v>8691</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>595</v>
+        <v>617</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>596</v>
+        <v>618</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>597</v>
+        <v>619</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8326,13 +8410,13 @@
         <v>38375</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>598</v>
+        <v>620</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>599</v>
+        <v>621</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>600</v>
+        <v>622</v>
       </c>
       <c r="H26" s="7">
         <v>46</v>
@@ -8341,13 +8425,13 @@
         <v>50832</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>602</v>
+        <v>624</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>603</v>
+        <v>625</v>
       </c>
       <c r="M26" s="7">
         <v>89</v>
@@ -8356,13 +8440,13 @@
         <v>89207</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>604</v>
+        <v>626</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>605</v>
+        <v>627</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>606</v>
+        <v>628</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8430,7 +8514,7 @@
         <v>9228</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>607</v>
+        <v>629</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>230</v>
@@ -8445,13 +8529,13 @@
         <v>17614</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>608</v>
+        <v>630</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>609</v>
+        <v>631</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>610</v>
+        <v>632</v>
       </c>
       <c r="M28" s="7">
         <v>24</v>
@@ -8460,13 +8544,13 @@
         <v>26842</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>611</v>
+        <v>633</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>612</v>
+        <v>634</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>613</v>
+        <v>635</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8481,13 +8565,13 @@
         <v>9391</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>614</v>
+        <v>636</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>615</v>
+        <v>637</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>616</v>
+        <v>638</v>
       </c>
       <c r="H29" s="7">
         <v>19</v>
@@ -8496,13 +8580,13 @@
         <v>22417</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>617</v>
+        <v>639</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>619</v>
+        <v>641</v>
       </c>
       <c r="M29" s="7">
         <v>28</v>
@@ -8511,13 +8595,13 @@
         <v>31808</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>620</v>
+        <v>642</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>621</v>
+        <v>643</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>622</v>
+        <v>644</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8532,13 +8616,13 @@
         <v>93566</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>623</v>
+        <v>645</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>624</v>
+        <v>646</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>625</v>
+        <v>647</v>
       </c>
       <c r="H30" s="7">
         <v>92</v>
@@ -8547,13 +8631,13 @@
         <v>107595</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>626</v>
+        <v>648</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>627</v>
+        <v>649</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>628</v>
+        <v>650</v>
       </c>
       <c r="M30" s="7">
         <v>182</v>
@@ -8562,13 +8646,13 @@
         <v>201160</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>629</v>
+        <v>651</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>630</v>
+        <v>652</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>631</v>
+        <v>653</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8636,13 +8720,13 @@
         <v>6358</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>632</v>
+        <v>654</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>633</v>
+        <v>655</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>634</v>
+        <v>656</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -8651,13 +8735,13 @@
         <v>6167</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>635</v>
+        <v>657</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>636</v>
+        <v>658</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>637</v>
+        <v>659</v>
       </c>
       <c r="M32" s="7">
         <v>11</v>
@@ -8666,13 +8750,13 @@
         <v>12525</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>638</v>
+        <v>660</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>639</v>
+        <v>661</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>640</v>
+        <v>662</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8687,13 +8771,13 @@
         <v>11371</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>641</v>
+        <v>663</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>642</v>
+        <v>664</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>643</v>
+        <v>665</v>
       </c>
       <c r="H33" s="7">
         <v>20</v>
@@ -8702,13 +8786,13 @@
         <v>26407</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>644</v>
+        <v>666</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="M33" s="7">
         <v>32</v>
@@ -8717,13 +8801,13 @@
         <v>37778</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>647</v>
+        <v>669</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>648</v>
+        <v>670</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>649</v>
+        <v>671</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8738,13 +8822,13 @@
         <v>116439</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>650</v>
+        <v>672</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>651</v>
+        <v>673</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>652</v>
+        <v>674</v>
       </c>
       <c r="H34" s="7">
         <v>117</v>
@@ -8753,13 +8837,13 @@
         <v>143723</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>653</v>
+        <v>675</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>654</v>
+        <v>676</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>655</v>
+        <v>677</v>
       </c>
       <c r="M34" s="7">
         <v>240</v>
@@ -8768,13 +8852,13 @@
         <v>260162</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>656</v>
+        <v>678</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>657</v>
+        <v>679</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8842,13 +8926,13 @@
         <v>39093</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>658</v>
+        <v>680</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>659</v>
+        <v>681</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>660</v>
+        <v>682</v>
       </c>
       <c r="H36" s="7">
         <v>55</v>
@@ -8857,13 +8941,13 @@
         <v>70756</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>661</v>
+        <v>683</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>662</v>
+        <v>684</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>663</v>
+        <v>685</v>
       </c>
       <c r="M36" s="7">
         <v>99</v>
@@ -8872,13 +8956,13 @@
         <v>109849</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>664</v>
+        <v>686</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>665</v>
+        <v>687</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>666</v>
+        <v>688</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8893,13 +8977,13 @@
         <v>41826</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>667</v>
+        <v>689</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>668</v>
+        <v>690</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>669</v>
+        <v>691</v>
       </c>
       <c r="H37" s="7">
         <v>100</v>
@@ -8908,13 +8992,13 @@
         <v>124534</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>670</v>
+        <v>692</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>671</v>
+        <v>693</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>672</v>
+        <v>694</v>
       </c>
       <c r="M37" s="7">
         <v>145</v>
@@ -8923,13 +9007,13 @@
         <v>166360</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>673</v>
+        <v>695</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>674</v>
+        <v>696</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>675</v>
+        <v>697</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8944,13 +9028,13 @@
         <v>510409</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>676</v>
+        <v>698</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>677</v>
+        <v>699</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>678</v>
+        <v>700</v>
       </c>
       <c r="H38" s="7">
         <v>500</v>
@@ -8959,10 +9043,10 @@
         <v>582641</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>679</v>
+        <v>701</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>680</v>
+        <v>702</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>173</v>
@@ -8974,13 +9058,13 @@
         <v>1093050</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>681</v>
+        <v>703</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>682</v>
+        <v>704</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>683</v>
+        <v>705</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9060,7 +9144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224A3F06-7E6D-46A3-BF86-3A12DCA54B5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165D82B3-8636-402A-A87E-E6EC526251FE}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9077,7 +9161,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>684</v>
+        <v>706</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9181,46 +9265,46 @@
         <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>6449</v>
+        <v>6868</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>207</v>
+        <v>438</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>658</v>
+        <v>707</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>685</v>
+        <v>708</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>11262</v>
+        <v>11332</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>686</v>
+        <v>459</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>463</v>
+        <v>56</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>687</v>
+        <v>709</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
       </c>
       <c r="N4" s="7">
-        <v>17711</v>
+        <v>18200</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>688</v>
+        <v>710</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>689</v>
+        <v>711</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>690</v>
+        <v>712</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9232,46 +9316,46 @@
         <v>16</v>
       </c>
       <c r="D5" s="7">
-        <v>9920</v>
+        <v>10578</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>691</v>
+        <v>713</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>692</v>
+        <v>714</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>693</v>
+        <v>715</v>
       </c>
       <c r="H5" s="7">
         <v>32</v>
       </c>
       <c r="I5" s="7">
-        <v>14890</v>
+        <v>15135</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>694</v>
+        <v>716</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>695</v>
+        <v>717</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>696</v>
+        <v>718</v>
       </c>
       <c r="M5" s="7">
         <v>48</v>
       </c>
       <c r="N5" s="7">
-        <v>24810</v>
+        <v>25712</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>697</v>
+        <v>719</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>698</v>
+        <v>720</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>583</v>
+        <v>721</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9283,46 +9367,46 @@
         <v>58</v>
       </c>
       <c r="D6" s="7">
-        <v>35551</v>
+        <v>38456</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>87</v>
+        <v>722</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>699</v>
+        <v>723</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>249</v>
+        <v>724</v>
       </c>
       <c r="H6" s="7">
         <v>79</v>
       </c>
       <c r="I6" s="7">
-        <v>36067</v>
+        <v>36942</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>700</v>
+        <v>725</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>701</v>
+        <v>726</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>171</v>
+        <v>727</v>
       </c>
       <c r="M6" s="7">
         <v>137</v>
       </c>
       <c r="N6" s="7">
-        <v>71618</v>
+        <v>75398</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>702</v>
+        <v>728</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>703</v>
+        <v>729</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>704</v>
+        <v>730</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9334,7 +9418,7 @@
         <v>83</v>
       </c>
       <c r="D7" s="7">
-        <v>51920</v>
+        <v>55901</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>38</v>
@@ -9349,7 +9433,7 @@
         <v>132</v>
       </c>
       <c r="I7" s="7">
-        <v>62219</v>
+        <v>63409</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>38</v>
@@ -9364,7 +9448,7 @@
         <v>215</v>
       </c>
       <c r="N7" s="7">
-        <v>114139</v>
+        <v>119310</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -9387,46 +9471,46 @@
         <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>5505</v>
+        <v>5121</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>705</v>
+        <v>236</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>731</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>706</v>
+        <v>732</v>
       </c>
       <c r="H8" s="7">
         <v>36</v>
       </c>
       <c r="I8" s="7">
-        <v>24679</v>
+        <v>22014</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>707</v>
+        <v>733</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>708</v>
+        <v>734</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>709</v>
+        <v>735</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
       </c>
       <c r="N8" s="7">
-        <v>30184</v>
+        <v>27135</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>418</v>
+        <v>736</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>519</v>
+        <v>128</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>710</v>
+        <v>737</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9438,46 +9522,46 @@
         <v>5</v>
       </c>
       <c r="D9" s="7">
-        <v>4855</v>
+        <v>4475</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>711</v>
+        <v>533</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>712</v>
+        <v>738</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>713</v>
+        <v>630</v>
       </c>
       <c r="H9" s="7">
         <v>46</v>
       </c>
       <c r="I9" s="7">
-        <v>28592</v>
+        <v>26025</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>714</v>
+        <v>739</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>644</v>
+        <v>740</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>715</v>
+        <v>741</v>
       </c>
       <c r="M9" s="7">
         <v>51</v>
       </c>
       <c r="N9" s="7">
-        <v>33448</v>
+        <v>30500</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>717</v>
+        <v>291</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>718</v>
+        <v>743</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9489,46 +9573,46 @@
         <v>83</v>
       </c>
       <c r="D10" s="7">
-        <v>74997</v>
+        <v>70254</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>719</v>
+        <v>744</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>720</v>
+        <v>745</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>721</v>
+        <v>746</v>
       </c>
       <c r="H10" s="7">
         <v>141</v>
       </c>
       <c r="I10" s="7">
-        <v>88086</v>
+        <v>80953</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>722</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>723</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>724</v>
       </c>
       <c r="M10" s="7">
         <v>224</v>
       </c>
       <c r="N10" s="7">
-        <v>163083</v>
+        <v>151207</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>725</v>
+        <v>749</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>726</v>
+        <v>750</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>727</v>
+        <v>751</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9540,7 +9624,7 @@
         <v>94</v>
       </c>
       <c r="D11" s="7">
-        <v>85358</v>
+        <v>79850</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>38</v>
@@ -9555,7 +9639,7 @@
         <v>223</v>
       </c>
       <c r="I11" s="7">
-        <v>141357</v>
+        <v>128992</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>38</v>
@@ -9570,7 +9654,7 @@
         <v>317</v>
       </c>
       <c r="N11" s="7">
-        <v>226715</v>
+        <v>208842</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>38</v>
@@ -9593,46 +9677,46 @@
         <v>20</v>
       </c>
       <c r="D12" s="7">
-        <v>12808</v>
+        <v>11966</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>728</v>
+        <v>752</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>729</v>
+        <v>461</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>730</v>
+        <v>753</v>
       </c>
       <c r="H12" s="7">
         <v>33</v>
       </c>
       <c r="I12" s="7">
-        <v>17762</v>
+        <v>16201</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>731</v>
+        <v>754</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>732</v>
+        <v>755</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>367</v>
+        <v>756</v>
       </c>
       <c r="M12" s="7">
         <v>53</v>
       </c>
       <c r="N12" s="7">
-        <v>30570</v>
+        <v>28167</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>733</v>
+        <v>757</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>734</v>
+        <v>758</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>735</v>
+        <v>759</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9644,46 +9728,46 @@
         <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>3030</v>
+        <v>2873</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>736</v>
+        <v>760</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>737</v>
+        <v>761</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>738</v>
+        <v>762</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
       </c>
       <c r="I13" s="7">
-        <v>13790</v>
+        <v>12420</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>739</v>
+        <v>683</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>740</v>
+        <v>763</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
       </c>
       <c r="N13" s="7">
-        <v>16820</v>
+        <v>15293</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>741</v>
+        <v>764</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>412</v>
+        <v>455</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>734</v>
+        <v>765</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9695,46 +9779,46 @@
         <v>97</v>
       </c>
       <c r="D14" s="7">
-        <v>61763</v>
+        <v>58652</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>742</v>
+        <v>766</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>743</v>
+        <v>767</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>744</v>
+        <v>768</v>
       </c>
       <c r="H14" s="7">
         <v>112</v>
       </c>
       <c r="I14" s="7">
-        <v>63399</v>
+        <v>58804</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>745</v>
+        <v>769</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>746</v>
+        <v>770</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>747</v>
+        <v>771</v>
       </c>
       <c r="M14" s="7">
         <v>209</v>
       </c>
       <c r="N14" s="7">
-        <v>125161</v>
+        <v>117456</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>748</v>
+        <v>772</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>749</v>
+        <v>773</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>750</v>
+        <v>774</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9746,7 +9830,7 @@
         <v>122</v>
       </c>
       <c r="D15" s="7">
-        <v>77601</v>
+        <v>73490</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>38</v>
@@ -9761,7 +9845,7 @@
         <v>169</v>
       </c>
       <c r="I15" s="7">
-        <v>94951</v>
+        <v>87425</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>38</v>
@@ -9776,7 +9860,7 @@
         <v>291</v>
       </c>
       <c r="N15" s="7">
-        <v>172552</v>
+        <v>160915</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>38</v>
@@ -9799,46 +9883,46 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>1298</v>
+        <v>1215</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>751</v>
+        <v>775</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>752</v>
+        <v>410</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
       </c>
       <c r="I16" s="7">
-        <v>12868</v>
+        <v>12006</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>753</v>
+        <v>776</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>754</v>
+        <v>777</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>755</v>
+        <v>778</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
       </c>
       <c r="N16" s="7">
-        <v>14167</v>
+        <v>13221</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>756</v>
+        <v>779</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>757</v>
+        <v>437</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>440</v>
+        <v>780</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9850,46 +9934,46 @@
         <v>19</v>
       </c>
       <c r="D17" s="7">
-        <v>12290</v>
+        <v>11579</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>758</v>
+        <v>781</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>298</v>
+        <v>782</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>759</v>
+        <v>783</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
       </c>
       <c r="I17" s="7">
-        <v>14561</v>
+        <v>13642</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>570</v>
+        <v>784</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>760</v>
+        <v>320</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>761</v>
+        <v>459</v>
       </c>
       <c r="M17" s="7">
         <v>52</v>
       </c>
       <c r="N17" s="7">
-        <v>26851</v>
+        <v>25221</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>762</v>
+        <v>532</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>763</v>
+        <v>785</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>764</v>
+        <v>786</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9901,46 +9985,46 @@
         <v>95</v>
       </c>
       <c r="D18" s="7">
-        <v>64009</v>
+        <v>60718</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>765</v>
+        <v>787</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>766</v>
+        <v>788</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>767</v>
+        <v>789</v>
       </c>
       <c r="H18" s="7">
         <v>193</v>
       </c>
       <c r="I18" s="7">
-        <v>83026</v>
+        <v>77988</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>768</v>
+        <v>790</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>769</v>
+        <v>424</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="M18" s="7">
         <v>288</v>
       </c>
       <c r="N18" s="7">
-        <v>147034</v>
+        <v>138705</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>772</v>
+        <v>793</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>773</v>
+        <v>794</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9952,7 +10036,7 @@
         <v>116</v>
       </c>
       <c r="D19" s="7">
-        <v>77597</v>
+        <v>73512</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>38</v>
@@ -9967,7 +10051,7 @@
         <v>256</v>
       </c>
       <c r="I19" s="7">
-        <v>110455</v>
+        <v>103636</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>38</v>
@@ -9982,7 +10066,7 @@
         <v>372</v>
       </c>
       <c r="N19" s="7">
-        <v>188052</v>
+        <v>177147</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>38</v>
@@ -10005,46 +10089,46 @@
         <v>5</v>
       </c>
       <c r="D20" s="7">
-        <v>2833</v>
+        <v>2542</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>774</v>
+        <v>795</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>775</v>
+        <v>537</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>776</v>
+        <v>796</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
       </c>
       <c r="I20" s="7">
-        <v>4902</v>
+        <v>4344</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>777</v>
+        <v>155</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>778</v>
+        <v>797</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>779</v>
+        <v>798</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
       </c>
       <c r="N20" s="7">
-        <v>7735</v>
+        <v>6886</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>780</v>
+        <v>799</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>781</v>
+        <v>800</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>782</v>
+        <v>801</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10056,46 +10140,46 @@
         <v>10</v>
       </c>
       <c r="D21" s="7">
-        <v>5492</v>
+        <v>4960</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>783</v>
+        <v>802</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>785</v>
+        <v>803</v>
       </c>
       <c r="H21" s="7">
         <v>33</v>
       </c>
       <c r="I21" s="7">
-        <v>13611</v>
+        <v>12202</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>786</v>
+        <v>804</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>787</v>
+        <v>805</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>788</v>
+        <v>806</v>
       </c>
       <c r="M21" s="7">
         <v>43</v>
       </c>
       <c r="N21" s="7">
-        <v>19104</v>
+        <v>17162</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>789</v>
+        <v>807</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>790</v>
+        <v>808</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>791</v>
+        <v>809</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -10107,46 +10191,46 @@
         <v>56</v>
       </c>
       <c r="D22" s="7">
-        <v>30006</v>
+        <v>27315</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>792</v>
+        <v>810</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>793</v>
+        <v>811</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>794</v>
+        <v>812</v>
       </c>
       <c r="H22" s="7">
         <v>121</v>
       </c>
       <c r="I22" s="7">
-        <v>46966</v>
+        <v>42700</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>795</v>
+        <v>813</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>796</v>
+        <v>814</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>797</v>
+        <v>815</v>
       </c>
       <c r="M22" s="7">
         <v>177</v>
       </c>
       <c r="N22" s="7">
-        <v>76973</v>
+        <v>70014</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>798</v>
+        <v>816</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>799</v>
+        <v>817</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>742</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10158,7 +10242,7 @@
         <v>71</v>
       </c>
       <c r="D23" s="7">
-        <v>38331</v>
+        <v>34816</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>38</v>
@@ -10173,7 +10257,7 @@
         <v>165</v>
       </c>
       <c r="I23" s="7">
-        <v>65480</v>
+        <v>59246</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>38</v>
@@ -10188,7 +10272,7 @@
         <v>236</v>
       </c>
       <c r="N23" s="7">
-        <v>103812</v>
+        <v>94062</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>38</v>
@@ -10211,46 +10295,46 @@
         <v>22</v>
       </c>
       <c r="D24" s="7">
-        <v>9501</v>
+        <v>9054</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>800</v>
+        <v>818</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>519</v>
+        <v>819</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>801</v>
+        <v>820</v>
       </c>
       <c r="H24" s="7">
         <v>47</v>
       </c>
       <c r="I24" s="7">
-        <v>16752</v>
+        <v>15662</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>802</v>
+        <v>821</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>803</v>
+        <v>822</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>804</v>
+        <v>823</v>
       </c>
       <c r="M24" s="7">
         <v>69</v>
       </c>
       <c r="N24" s="7">
-        <v>26253</v>
+        <v>24716</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>805</v>
+        <v>824</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>755</v>
+        <v>825</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>806</v>
+        <v>826</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10262,46 +10346,46 @@
         <v>12</v>
       </c>
       <c r="D25" s="7">
-        <v>5696</v>
+        <v>5428</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>807</v>
+        <v>827</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>13</v>
+        <v>267</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>808</v>
+        <v>828</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
       </c>
       <c r="I25" s="7">
-        <v>11404</v>
+        <v>10661</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>809</v>
+        <v>829</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>810</v>
+        <v>244</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>563</v>
+        <v>830</v>
       </c>
       <c r="M25" s="7">
         <v>42</v>
       </c>
       <c r="N25" s="7">
-        <v>17101</v>
+        <v>16089</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>811</v>
+        <v>133</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>812</v>
+        <v>819</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>813</v>
+        <v>831</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10313,46 +10397,46 @@
         <v>101</v>
       </c>
       <c r="D26" s="7">
-        <v>47985</v>
+        <v>45778</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>814</v>
+        <v>832</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>328</v>
+        <v>833</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>252</v>
+        <v>834</v>
       </c>
       <c r="H26" s="7">
         <v>100</v>
       </c>
       <c r="I26" s="7">
-        <v>41697</v>
+        <v>38936</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>815</v>
+        <v>835</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>816</v>
+        <v>836</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>817</v>
+        <v>837</v>
       </c>
       <c r="M26" s="7">
         <v>201</v>
       </c>
       <c r="N26" s="7">
-        <v>89683</v>
+        <v>84714</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>818</v>
+        <v>838</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>334</v>
+        <v>839</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>819</v>
+        <v>840</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10364,7 +10448,7 @@
         <v>135</v>
       </c>
       <c r="D27" s="7">
-        <v>63183</v>
+        <v>60261</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>38</v>
@@ -10379,7 +10463,7 @@
         <v>177</v>
       </c>
       <c r="I27" s="7">
-        <v>69853</v>
+        <v>65258</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>38</v>
@@ -10394,7 +10478,7 @@
         <v>312</v>
       </c>
       <c r="N27" s="7">
-        <v>133037</v>
+        <v>125519</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>38</v>
@@ -10417,46 +10501,46 @@
         <v>5</v>
       </c>
       <c r="D28" s="7">
-        <v>4439</v>
+        <v>4153</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>590</v>
+        <v>841</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>820</v>
+        <v>842</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>371</v>
+        <v>843</v>
       </c>
       <c r="H28" s="7">
         <v>34</v>
       </c>
       <c r="I28" s="7">
-        <v>24398</v>
+        <v>21199</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>821</v>
+        <v>844</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>822</v>
+        <v>845</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>823</v>
+        <v>846</v>
       </c>
       <c r="M28" s="7">
         <v>39</v>
       </c>
       <c r="N28" s="7">
-        <v>28837</v>
+        <v>25352</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>824</v>
+        <v>847</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>825</v>
+        <v>103</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>826</v>
+        <v>848</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10468,46 +10552,46 @@
         <v>12</v>
       </c>
       <c r="D29" s="7">
-        <v>10659</v>
+        <v>9828</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>827</v>
+        <v>849</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>828</v>
+        <v>850</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>157</v>
+        <v>851</v>
       </c>
       <c r="H29" s="7">
         <v>32</v>
       </c>
       <c r="I29" s="7">
-        <v>17731</v>
+        <v>16234</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>829</v>
+        <v>370</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>830</v>
+        <v>852</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>671</v>
+        <v>853</v>
       </c>
       <c r="M29" s="7">
         <v>44</v>
       </c>
       <c r="N29" s="7">
-        <v>28390</v>
+        <v>26062</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>831</v>
+        <v>854</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>832</v>
+        <v>855</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>833</v>
+        <v>856</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10519,46 +10603,46 @@
         <v>151</v>
       </c>
       <c r="D30" s="7">
-        <v>115742</v>
+        <v>109273</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>834</v>
+        <v>857</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>835</v>
+        <v>858</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>836</v>
+        <v>859</v>
       </c>
       <c r="H30" s="7">
         <v>176</v>
       </c>
       <c r="I30" s="7">
-        <v>216714</v>
+        <v>301749</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>837</v>
+        <v>860</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>838</v>
+        <v>861</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>839</v>
+        <v>862</v>
       </c>
       <c r="M30" s="7">
         <v>327</v>
       </c>
       <c r="N30" s="7">
-        <v>332456</v>
+        <v>411021</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>840</v>
+        <v>863</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>841</v>
+        <v>864</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>842</v>
+        <v>865</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10570,7 +10654,7 @@
         <v>168</v>
       </c>
       <c r="D31" s="7">
-        <v>130840</v>
+        <v>123254</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>38</v>
@@ -10585,7 +10669,7 @@
         <v>242</v>
       </c>
       <c r="I31" s="7">
-        <v>258843</v>
+        <v>339182</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>38</v>
@@ -10600,7 +10684,7 @@
         <v>410</v>
       </c>
       <c r="N31" s="7">
-        <v>389683</v>
+        <v>462436</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>38</v>
@@ -10623,46 +10707,46 @@
         <v>9</v>
       </c>
       <c r="D32" s="7">
-        <v>5710</v>
+        <v>4990</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>843</v>
+        <v>183</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>844</v>
+        <v>866</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>845</v>
+        <v>867</v>
       </c>
       <c r="H32" s="7">
         <v>46</v>
       </c>
       <c r="I32" s="7">
-        <v>31443</v>
+        <v>25844</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>846</v>
+        <v>465</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>847</v>
+        <v>868</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>848</v>
+        <v>869</v>
       </c>
       <c r="M32" s="7">
         <v>55</v>
       </c>
       <c r="N32" s="7">
-        <v>37153</v>
+        <v>30834</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>389</v>
+        <v>870</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>849</v>
+        <v>871</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>850</v>
+        <v>872</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10674,46 +10758,46 @@
         <v>21</v>
       </c>
       <c r="D33" s="7">
-        <v>15522</v>
+        <v>13197</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>851</v>
+        <v>827</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>852</v>
+        <v>873</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>853</v>
+        <v>874</v>
       </c>
       <c r="H33" s="7">
         <v>62</v>
       </c>
       <c r="I33" s="7">
-        <v>41729</v>
+        <v>33977</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>731</v>
+        <v>417</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>854</v>
+        <v>875</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>855</v>
+        <v>641</v>
       </c>
       <c r="M33" s="7">
         <v>83</v>
       </c>
       <c r="N33" s="7">
-        <v>57251</v>
+        <v>47174</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>856</v>
+        <v>876</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>857</v>
+        <v>466</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>858</v>
+        <v>877</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10725,46 +10809,46 @@
         <v>204</v>
       </c>
       <c r="D34" s="7">
-        <v>148002</v>
+        <v>128288</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>859</v>
+        <v>878</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>860</v>
+        <v>879</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>861</v>
+        <v>556</v>
       </c>
       <c r="H34" s="7">
         <v>235</v>
       </c>
       <c r="I34" s="7">
-        <v>149871</v>
+        <v>126821</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>862</v>
+        <v>880</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>863</v>
+        <v>356</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>864</v>
+        <v>881</v>
       </c>
       <c r="M34" s="7">
         <v>439</v>
       </c>
       <c r="N34" s="7">
-        <v>297873</v>
+        <v>255109</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>865</v>
+        <v>882</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>819</v>
+        <v>883</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>598</v>
+        <v>884</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10776,7 +10860,7 @@
         <v>234</v>
       </c>
       <c r="D35" s="7">
-        <v>169234</v>
+        <v>146475</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>38</v>
@@ -10791,7 +10875,7 @@
         <v>343</v>
       </c>
       <c r="I35" s="7">
-        <v>223043</v>
+        <v>186642</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>38</v>
@@ -10806,7 +10890,7 @@
         <v>577</v>
       </c>
       <c r="N35" s="7">
-        <v>392277</v>
+        <v>333117</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>38</v>
@@ -10829,46 +10913,46 @@
         <v>78</v>
       </c>
       <c r="D36" s="7">
-        <v>48544</v>
+        <v>45908</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>866</v>
+        <v>586</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>867</v>
+        <v>885</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>868</v>
+        <v>886</v>
       </c>
       <c r="H36" s="7">
         <v>258</v>
       </c>
       <c r="I36" s="7">
-        <v>144067</v>
+        <v>128602</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>869</v>
+        <v>887</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>82</v>
+        <v>888</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>870</v>
+        <v>889</v>
       </c>
       <c r="M36" s="7">
         <v>336</v>
       </c>
       <c r="N36" s="7">
-        <v>192611</v>
+        <v>174510</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>871</v>
+        <v>890</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>872</v>
+        <v>891</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10880,46 +10964,46 @@
         <v>100</v>
       </c>
       <c r="D37" s="7">
-        <v>67466</v>
+        <v>62917</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>218</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>873</v>
+        <v>892</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>874</v>
+        <v>893</v>
       </c>
       <c r="H37" s="7">
         <v>292</v>
       </c>
       <c r="I37" s="7">
-        <v>156309</v>
+        <v>140296</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>875</v>
+        <v>894</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>876</v>
+        <v>17</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="M37" s="7">
         <v>392</v>
       </c>
       <c r="N37" s="7">
-        <v>223774</v>
+        <v>203214</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>878</v>
+        <v>896</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>879</v>
+        <v>897</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>15</v>
+        <v>898</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10931,46 +11015,46 @@
         <v>845</v>
       </c>
       <c r="D38" s="7">
-        <v>578055</v>
+        <v>538733</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>475</v>
+        <v>899</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>880</v>
+        <v>900</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>881</v>
+        <v>901</v>
       </c>
       <c r="H38" s="7">
         <v>1157</v>
       </c>
       <c r="I38" s="7">
-        <v>725826</v>
+        <v>764891</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>882</v>
+        <v>902</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>883</v>
+        <v>903</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>884</v>
+        <v>904</v>
       </c>
       <c r="M38" s="7">
         <v>2002</v>
       </c>
       <c r="N38" s="7">
-        <v>1303882</v>
+        <v>1303624</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>885</v>
+        <v>905</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>886</v>
+        <v>906</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>887</v>
+        <v>907</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10982,7 +11066,7 @@
         <v>1023</v>
       </c>
       <c r="D39" s="7">
-        <v>694065</v>
+        <v>647559</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>38</v>
@@ -10997,7 +11081,7 @@
         <v>1707</v>
       </c>
       <c r="I39" s="7">
-        <v>1026202</v>
+        <v>1033789</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>38</v>
@@ -11012,7 +11096,7 @@
         <v>2730</v>
       </c>
       <c r="N39" s="7">
-        <v>1720267</v>
+        <v>1681348</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>38</v>
